--- a/elasticsearch_mk/Messergebnisse.xlsx
+++ b/elasticsearch_mk/Messergebnisse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShardsReplica" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="82">
   <si>
     <t>Query 03</t>
   </si>
@@ -226,6 +226,51 @@
   </si>
   <si>
     <t>Elasticsearch ohne Ausreißer (Query mit sehr vielen Script-Tags wurde nicht berücksichtigt)</t>
+  </si>
+  <si>
+    <t>1 Replica</t>
+  </si>
+  <si>
+    <t>0 Replica</t>
+  </si>
+  <si>
+    <t>2 Replica</t>
+  </si>
+  <si>
+    <t>3 Replica</t>
+  </si>
+  <si>
+    <t>Konfiguration:</t>
+  </si>
+  <si>
+    <t>Replica</t>
+  </si>
+  <si>
+    <t>Node Query Cache</t>
+  </si>
+  <si>
+    <t>20% des Heap</t>
+  </si>
+  <si>
+    <t>Shard Request Cache</t>
+  </si>
+  <si>
+    <t>2% des Heaps</t>
+  </si>
+  <si>
+    <t>indices.breaker.total.limit</t>
+  </si>
+  <si>
+    <t>indices.breaker.fielddata.limit</t>
+  </si>
+  <si>
+    <t>indices.breaker.request.limit</t>
+  </si>
+  <si>
+    <t>90% des Heap</t>
+  </si>
+  <si>
+    <t>80% des Heap</t>
   </si>
 </sst>
 </file>
@@ -470,7 +515,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0 Replica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -593,7 +638,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1 Replica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -716,7 +761,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2 Replica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -827,7 +872,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3 Replica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1283,7 +1328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0 Replica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1394,7 +1439,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1 Replica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1505,7 +1550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2 Replica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1616,7 +1661,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3 Replica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2056,6 +2101,550 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Cache!$M$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cache!$N$39:$P$39</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10% of Heap</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20% of Heap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30% of Heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cache!$N$40:$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>246.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>263.28571428571428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFD2-4B1B-A44D-A07563897F22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cache!$M$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ad hoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cache!$N$39:$P$39</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10% of Heap</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20% of Heap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30% of Heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cache!$N$41:$P$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>243.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFD2-4B1B-A44D-A07563897F22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cache!$M$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reporting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cache!$N$39:$P$39</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10% of Heap</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20% of Heap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30% of Heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cache!$N$42:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>320.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316.71428571428572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CFD2-4B1B-A44D-A07563897F22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cache!$M$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Mining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cache!$N$39:$P$39</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10% of Heap</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20% of Heap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30% of Heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cache!$N$43:$P$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CFD2-4B1B-A44D-A07563897F22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="423404528"/>
+        <c:axId val="423401904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="423404528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423401904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423401904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Durchschn.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> Laufzeit in ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423404528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Segmente!$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2451,7 +3040,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2869,7 +3458,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3414,7 +4003,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4199,6 +4788,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6741,6 +7370,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7326,6 +8458,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E425FCCC-433D-47CE-A764-1467902C5CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -7363,7 +8536,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7442,7 +8615,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7748,8 +8921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27257CA-E1C5-4B55-BA05-548A1E78A736}">
   <dimension ref="A3:AV46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP32" sqref="AP32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11127,17 +12300,17 @@
       <c r="AV29" s="1"/>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.25">
@@ -11358,10 +12531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813BA426-8ECA-4B78-A741-685E1155F65A}">
-  <dimension ref="A5:P35"/>
+  <dimension ref="A5:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:P35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12269,7 +13442,7 @@
         <v>250.25</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -12325,7 +13498,7 @@
         <v>329.57142857142856</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>24</v>
       </c>
@@ -12381,7 +13554,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>25</v>
       </c>
@@ -12434,8 +13607,92 @@
         <v>261.08333333333331</v>
       </c>
     </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40">
+        <v>266</v>
+      </c>
+      <c r="O40">
+        <v>246.42857142857142</v>
+      </c>
+      <c r="P40">
+        <v>263.28571428571428</v>
+      </c>
+      <c r="Q40">
+        <f>N40/O40</f>
+        <v>1.0794202898550724</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>65</v>
+      </c>
+      <c r="N41">
+        <v>243.25</v>
+      </c>
+      <c r="O41">
+        <v>222.5</v>
+      </c>
+      <c r="P41">
+        <v>241.75</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41:Q43" si="13">N41/O41</f>
+        <v>1.0932584269662922</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42">
+        <v>320.71428571428572</v>
+      </c>
+      <c r="O42">
+        <v>298.71428571428572</v>
+      </c>
+      <c r="P42">
+        <v>316.71428571428572</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="13"/>
+        <v>1.0736489717838356</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43">
+        <v>171.5</v>
+      </c>
+      <c r="O43">
+        <v>158</v>
+      </c>
+      <c r="P43">
+        <v>171</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="13"/>
+        <v>1.0854430379746836</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12444,7 +13701,7 @@
   <dimension ref="A6:H35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:H35"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13515,10 +14772,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F30"/>
+  <dimension ref="B3:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13659,7 +14916,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -13673,7 +14930,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -13687,7 +14944,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -13701,7 +14958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -13715,7 +14972,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -13729,7 +14986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -13743,7 +15000,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>19</v>
       </c>
@@ -13751,7 +15008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
@@ -13766,8 +15023,12 @@
         <f>AVERAGE(F9:F22)</f>
         <v>233.78571428571428</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f>E26/F26</f>
+        <v>1.1377940727161626</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -13782,8 +15043,12 @@
         <f>AVERAGE(F11,F18,F19,F20)</f>
         <v>218.75</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" ref="G27:G30" si="0">E27/F27</f>
+        <v>1.1120000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -13798,8 +15063,12 @@
         <f>AVERAGE(F9,F10,F13,F15,F16,F17,F21)</f>
         <v>280.14285714285717</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1.1448240693523712</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -13814,8 +15083,12 @@
         <f>AVERAGE(F12,F22)</f>
         <v>143.5</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1.1951219512195121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -13826,6 +15099,10 @@
       <c r="F30" s="1">
         <f>(F9+F11+F12+F13+F14+F15+SUM(F17:F19)+F16+F21+F22)/12</f>
         <v>218</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1.1559633027522935</v>
       </c>
     </row>
   </sheetData>
@@ -13836,10 +15113,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B4AD01-D761-4028-A99B-E6F7973F7E75}">
-  <dimension ref="A3:H29"/>
+  <dimension ref="A3:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14338,6 +15615,75 @@
         <v>1.9713168187744459</v>
       </c>
     </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14348,7 +15694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB632F94-213E-4D4C-96AE-0DB010C108A5}">
   <dimension ref="A3:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>

--- a/elasticsearch_mk/Messergebnisse.xlsx
+++ b/elasticsearch_mk/Messergebnisse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShardsReplica" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="86">
   <si>
     <t>Query 03</t>
   </si>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>80% des Heap</t>
+  </si>
+  <si>
+    <t>max_num_segments</t>
+  </si>
+  <si>
+    <t>Round Robin</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Elasticsearch ohne 43</t>
   </si>
 </sst>
 </file>
@@ -1226,6 +1238,921 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Benchmark!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elasticsearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Benchmark!$D$27:$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gesamt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adhoc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Reporting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Data Mining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Benchmark!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>135.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5273-4628-8EFB-D95A20698EE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Benchmark!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Druid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Benchmark!$D$27:$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gesamt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adhoc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Reporting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Data Mining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Benchmark!$F$27:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>130.35714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5273-4628-8EFB-D95A20698EE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="624275400"/>
+        <c:axId val="624272120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="624275400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624272120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624272120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Durchschn. Laufzeit der Queries in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624275400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Benchmark!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elasticsearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Benchmark!$D$27:$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gesamt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adhoc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Reporting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Data Mining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Benchmark!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>135.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5D8-4CBE-8D25-ACDD91C81736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Benchmark!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Druid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Benchmark!$D$27:$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gesamt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adhoc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Reporting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Data Mining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Benchmark!$F$27:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>130.35714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5D8-4CBE-8D25-ACDD91C81736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Benchmark!$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elasticsearch ohne 43</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Benchmark!$D$27:$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gesamt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adhoc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Reporting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Data Mining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Benchmark!$L$27:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>97.84615384615384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E5D8-4CBE-8D25-ACDD91C81736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="624275400"/>
+        <c:axId val="624272120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="624275400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624272120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624272120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Durchschn. Laufzeit der Queries in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624275400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2636,6 +3563,316 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Preload!$E$11:$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>[]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>["nvd", "dvd"]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>["nvd", "dvd", "tim"]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>["nvd", "dvd", "tim", "doc", "dim"]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Preload!$E$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.07142857142858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247.85714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC75-4203-8BCE-377373E57A87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="559105976"/>
+        <c:axId val="559052184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="559105976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559052184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="559052184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Durchschn. Laufzeit der Queries in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559105976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3040,7 +4277,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3458,7 +4695,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4003,7 +5240,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4548,7 +5785,632 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Benchmark!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elasticsearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Benchmark!$D$10:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Benchmark!$E$10:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B003-4D6A-994A-22F915844467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Benchmark!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Druid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Benchmark!$D$10:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Benchmark!$F$10:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B003-4D6A-994A-22F915844467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="395884312"/>
+        <c:axId val="395883984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="395884312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395883984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="395883984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="630"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Laufzeit der Queries in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395884312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4828,6 +6690,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5344,8 +7286,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5453,11 +7395,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5468,11 +7405,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5504,9 +7436,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5860,7 +7789,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6363,8 +8292,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6472,6 +8401,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6482,6 +8416,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6513,6 +8452,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6866,7 +8808,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7369,8 +9311,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7478,6 +9420,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7488,6 +9435,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7519,6 +9471,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7872,7 +9827,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8499,6 +12466,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE577CC0-8EE4-4279-A4C2-03FB40C12F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -8536,7 +12544,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8615,7 +12623,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8648,6 +12656,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957AE49A-F853-4751-AF98-A5A7F39B3DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45F7021-2E0F-42C4-AE91-8FCAD9CC8AAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{592C4D49-F930-4DBD-8D22-54C1F25C0866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14235,8 +18355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F999E43-9BCC-4590-B074-DDFC41BA3F67}">
   <dimension ref="A6:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14767,6 +18887,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15113,10 +19234,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B4AD01-D761-4028-A99B-E6F7973F7E75}">
-  <dimension ref="A3:H45"/>
+  <dimension ref="A3:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15684,6 +19805,30 @@
         <v>81</v>
       </c>
     </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15692,10 +19837,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB632F94-213E-4D4C-96AE-0DB010C108A5}">
-  <dimension ref="A3:L31"/>
+  <dimension ref="A3:N60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16423,6 +20568,11 @@
         <v>76.166666666666671</v>
       </c>
     </row>
+    <row r="60" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N60" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/elasticsearch_mk/Messergebnisse.xlsx
+++ b/elasticsearch_mk/Messergebnisse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShardsReplica" sheetId="3" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Segmente" sheetId="1" r:id="rId5"/>
     <sheet name="Final" sheetId="2" r:id="rId6"/>
     <sheet name="Benchmark" sheetId="4" r:id="rId7"/>
+    <sheet name="Final_Diagramm" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="97">
   <si>
     <t>Query 03</t>
   </si>
@@ -284,12 +285,45 @@
   <si>
     <t>Elasticsearch ohne 43</t>
   </si>
+  <si>
+    <t>gesamt</t>
+  </si>
+  <si>
+    <t>Ø-Laufzeit</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Hive (rel.)</t>
+  </si>
+  <si>
+    <t>Hive (denorm.)</t>
+  </si>
+  <si>
+    <t>135 ms</t>
+  </si>
+  <si>
+    <t>130 ms</t>
+  </si>
+  <si>
+    <t>1244 ms</t>
+  </si>
+  <si>
+    <t>3172 ms</t>
+  </si>
+  <si>
+    <t>9374 ms</t>
+  </si>
+  <si>
+    <t>64295 ms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +348,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -446,7 +488,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -478,6 +520,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -1900,7 +1943,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Benchmark!$N$60</c:f>
+              <c:f>Benchmark!$N$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2140,6 +2183,979 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="624275400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Final_Diagramm!$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ausgangsmessung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Final_Diagramm!$D$25:$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gesamt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ad hoc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Reporting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Data Mining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Final_Diagramm!$E$25:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>243.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22AC-40EC-A45F-5113B4800475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Final_Diagramm!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimierung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Final_Diagramm!$D$25:$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Gesamt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ad hoc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Reporting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Data Mining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Final_Diagramm!$F$25:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>135.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22AC-40EC-A45F-5113B4800475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="410017840"/>
+        <c:axId val="410018168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="410017840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410018168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410018168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Durchschn. Abfragelaufzeit in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410017840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Final_Diagramm!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ausgangsmessung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Final_Diagramm!$D$7:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Gesamt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Final_Diagramm!$E$7:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF5F-4F33-A2AD-8C23EA5B931C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Final_Diagramm!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimierung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Final_Diagramm!$D$7:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Gesamt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Final_Diagramm!$F$7:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF5F-4F33-A2AD-8C23EA5B931C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="412140104"/>
+        <c:axId val="412141744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="412140104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412141744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="412141744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Laufzeit in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412140104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3910,7 +4926,7 @@
                   <c:v>Gesamt</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Adhoc</c:v>
+                  <c:v>Ad hoc</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Reporting</c:v>
@@ -3981,7 +4997,7 @@
                   <c:v>Gesamt</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Adhoc</c:v>
+                  <c:v>Ad hoc</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Reporting</c:v>
@@ -6450,6 +7466,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8292,6 +9388,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -12426,15 +14528,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12745,7 +14847,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12768,6 +14870,87 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0988DF09-0AA3-4B41-BA65-D43B6284FCF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1FA96E-C13D-4C33-83B3-E1A5A8DD11E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16653,8 +18836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813BA426-8ECA-4B78-A741-685E1155F65A}">
   <dimension ref="A5:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17725,6 +19908,16 @@
       <c r="P35" s="1">
         <f t="shared" si="12"/>
         <v>261.08333333333331</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f>E31/F31</f>
+        <v>1.0914419695193434</v>
+      </c>
+      <c r="K36">
+        <f>E31/K31</f>
+        <v>1.0794202898550724</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
@@ -18353,10 +20546,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F999E43-9BCC-4590-B074-DDFC41BA3F67}">
-  <dimension ref="A6:H35"/>
+  <dimension ref="A6:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18482,7 +20675,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -18508,7 +20701,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -18534,7 +20727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -18560,7 +20753,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>42</v>
       </c>
@@ -18586,7 +20779,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>43</v>
       </c>
@@ -18612,7 +20805,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>48</v>
       </c>
@@ -18638,7 +20831,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>52</v>
       </c>
@@ -18664,7 +20857,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>55</v>
       </c>
@@ -18690,7 +20883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>70</v>
       </c>
@@ -18716,7 +20909,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>96</v>
       </c>
@@ -18742,7 +20935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>98</v>
       </c>
@@ -18768,7 +20961,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>21</v>
       </c>
@@ -18791,8 +20984,12 @@
         <f t="shared" si="0"/>
         <v>247.85714285714286</v>
       </c>
+      <c r="I31">
+        <f>E31/H31</f>
+        <v>1.0731988472622478</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>22</v>
       </c>
@@ -18896,7 +21093,7 @@
   <dimension ref="B3:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19154,7 +21351,7 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1">
         <f>AVERAGE(E11,E18,E19,E20)</f>
@@ -19236,8 +21433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B4AD01-D761-4028-A99B-E6F7973F7E75}">
   <dimension ref="A3:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19837,10 +22034,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB632F94-213E-4D4C-96AE-0DB010C108A5}">
-  <dimension ref="A3:N60"/>
+  <dimension ref="A3:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20568,13 +22765,694 @@
         <v>76.166666666666671</v>
       </c>
     </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N60" s="29" t="s">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N61" s="29" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9E829E-E87B-435F-8D84-5A555572F312}">
+  <dimension ref="A3:H48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>266</v>
+      </c>
+      <c r="F7">
+        <v>135</v>
+      </c>
+      <c r="G7" s="28">
+        <f>F7/E7</f>
+        <v>0.50751879699248126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>167</v>
+      </c>
+      <c r="F8">
+        <v>134</v>
+      </c>
+      <c r="G8" s="28">
+        <f>F8/E8</f>
+        <v>0.80239520958083832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>113</v>
+      </c>
+      <c r="F9">
+        <v>91</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" ref="G9:G21" si="0">F9/E9</f>
+        <v>0.80530973451327437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>159</v>
+      </c>
+      <c r="F10">
+        <v>92</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" si="0"/>
+        <v>0.57861635220125784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>212</v>
+      </c>
+      <c r="F11">
+        <v>91</v>
+      </c>
+      <c r="G11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.42924528301886794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>37</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.49333333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>163</v>
+      </c>
+      <c r="F13">
+        <v>96</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="0"/>
+        <v>0.58895705521472397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>52</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>1439</v>
+      </c>
+      <c r="F15">
+        <v>620</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="0"/>
+        <v>0.43085476025017372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>307</v>
+      </c>
+      <c r="F16">
+        <v>140</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.4560260586319218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>108</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="G17" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <v>119</v>
+      </c>
+      <c r="F18">
+        <v>78</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.65546218487394958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>587</v>
+      </c>
+      <c r="F19">
+        <v>267</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" si="0"/>
+        <v>0.45485519591141399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>96</v>
+      </c>
+      <c r="E20">
+        <v>48</v>
+      </c>
+      <c r="F20">
+        <v>23</v>
+      </c>
+      <c r="G20" s="28">
+        <f t="shared" si="0"/>
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>98</v>
+      </c>
+      <c r="E21">
+        <v>131</v>
+      </c>
+      <c r="F21">
+        <v>111</v>
+      </c>
+      <c r="G21" s="28">
+        <f t="shared" si="0"/>
+        <v>0.84732824427480913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="25">
+        <f>AVERAGE(E8:E21)</f>
+        <v>266</v>
+      </c>
+      <c r="F25" s="27">
+        <f>AVERAGE(F8:F21)</f>
+        <v>135.14285714285714</v>
+      </c>
+      <c r="G25" s="28">
+        <f>F25/E25</f>
+        <v>0.50805585392051555</v>
+      </c>
+      <c r="H25">
+        <f>E25/F25</f>
+        <v>1.9682875264270614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1">
+        <f>AVERAGE(E10,E17,E18,E19)</f>
+        <v>243.25</v>
+      </c>
+      <c r="F26" s="1">
+        <f>AVERAGE(F10,F17,F18,F19)</f>
+        <v>124.25</v>
+      </c>
+      <c r="G26" s="28">
+        <f t="shared" ref="G26:G29" si="1">F26/E26</f>
+        <v>0.51079136690647486</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H29" si="2">E26/F26</f>
+        <v>1.9577464788732395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1">
+        <f>AVERAGE(E8,E9,E12,E14,E15,E16,E20)</f>
+        <v>320.71428571428572</v>
+      </c>
+      <c r="F27" s="1">
+        <f>AVERAGE(F8,F9,F12,F14,F15,F16,F20)</f>
+        <v>156.71428571428572</v>
+      </c>
+      <c r="G27" s="28">
+        <f t="shared" si="1"/>
+        <v>0.48864142538975502</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>2.0464904284412033</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1">
+        <f>AVERAGE(E11,E21)</f>
+        <v>171.5</v>
+      </c>
+      <c r="F28" s="1">
+        <f>AVERAGE(F11,F21)</f>
+        <v>101</v>
+      </c>
+      <c r="G28" s="28">
+        <f t="shared" si="1"/>
+        <v>0.58892128279883382</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>1.698019801980198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1">
+        <f>(E8+E10+E11+E12+E13+E14+SUM(E16:E18)+E15+E20+E21)/12</f>
+        <v>252</v>
+      </c>
+      <c r="F29" s="1">
+        <f>(F8+F10+F11+F12+F13+F14+SUM(F16:F18)+F15+F20+F21)/12</f>
+        <v>127.83333333333333</v>
+      </c>
+      <c r="G29" s="28">
+        <f t="shared" si="1"/>
+        <v>0.50727513227513221</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>1.9713168187744459</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>